--- a/docs/DB History.xlsx
+++ b/docs/DB History.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -37,9 +36,6 @@
     <t>f3</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -52,9 +48,6 @@
     <t>changes</t>
   </si>
   <si>
-    <t>fields</t>
-  </si>
-  <si>
     <t>y1</t>
   </si>
   <si>
@@ -86,6 +79,12 @@
   </si>
   <si>
     <t>employees</t>
+  </si>
+  <si>
+    <t>dbTable</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -187,9 +186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,6 +196,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +505,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A25" sqref="A25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,34 +518,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -565,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -585,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -609,7 +608,7 @@
         <v>123456789</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -634,34 +633,34 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -680,19 +679,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -700,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -724,7 +723,7 @@
         <v>123456789</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,38 +745,38 @@
         <v>213456789</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="A16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -796,19 +795,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -816,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -840,7 +839,7 @@
         <v>123456789</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +861,7 @@
         <v>213456789</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -880,38 +879,38 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="A25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>3</v>
@@ -926,19 +925,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -946,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -970,7 +969,7 @@
         <v>123456789</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,7 +991,7 @@
         <v>213456789</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1011,7 +1010,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1023,23 +1022,23 @@
         <v>412356789</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
